--- a/Hackhaton_BusinessPlan.xlsx
+++ b/Hackhaton_BusinessPlan.xlsx
@@ -120,22 +120,22 @@
     <t>Capitale</t>
   </si>
   <si>
-    <t>Free per il customer, al terzo anno EUR 0.5</t>
-  </si>
-  <si>
     <t>Totale star</t>
   </si>
   <si>
     <t>Macchine, rete, stampanti</t>
   </si>
   <si>
-    <t>servizi aggiuntivi: gestione scontrini,download dati, dashboard</t>
-  </si>
-  <si>
-    <t>servizi aggiuntivi: estensione dei tipi (ricevute fiscali mediche, dentistiche)</t>
-  </si>
-  <si>
     <t>servizi aggiuntivi:</t>
+  </si>
+  <si>
+    <t>Free per il customer, al terzo anno EUR 0.5 -&gt; solo scontrino digitale con app android</t>
+  </si>
+  <si>
+    <t>servizi aggiuntivi: PRO + estensione dei tipi (ricevute fiscali mediche, dentistiche)</t>
+  </si>
+  <si>
+    <t>servizi aggiuntivi: BASE + web app con gestione scontrini,download dati, dashboard</t>
   </si>
 </sst>
 </file>
@@ -826,7 +826,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -911,7 +911,7 @@
     <row r="3" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C3" s="52"/>
       <c r="D3" s="7">
@@ -1060,7 +1060,7 @@
         <v>90750</v>
       </c>
       <c r="L10" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1122,7 +1122,7 @@
         <v>80089.5</v>
       </c>
       <c r="H12" s="26">
-        <f t="shared" ref="G12:J12" si="0">SUM(H10:H11)</f>
+        <f t="shared" ref="H12:J12" si="0">SUM(H10:H11)</f>
         <v>165579</v>
       </c>
       <c r="I12" s="26">
@@ -1167,7 +1167,7 @@
         <v>2534.3999999999996</v>
       </c>
       <c r="L13" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1203,7 +1203,7 @@
         <v>6393.5999999999985</v>
       </c>
       <c r="L14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -1310,13 +1310,13 @@
         <v>2558.7199999999993</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C18" s="56">
         <f>SUM(C16:C17)</f>

--- a/Hackhaton_BusinessPlan.xlsx
+++ b/Hackhaton_BusinessPlan.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Costi di investimento</t>
   </si>
@@ -129,13 +129,28 @@
     <t>servizi aggiuntivi:</t>
   </si>
   <si>
-    <t>Free per il customer, al terzo anno EUR 0.5 -&gt; solo scontrino digitale con app android</t>
-  </si>
-  <si>
     <t>servizi aggiuntivi: PRO + estensione dei tipi (ricevute fiscali mediche, dentistiche)</t>
   </si>
   <si>
     <t>servizi aggiuntivi: BASE + web app con gestione scontrini,download dati, dashboard</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Free per il customer, al terzo anno EUR 0.5 -&gt; solo scontrino digitale con app android </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ community offerte</t>
+    </r>
+  </si>
+  <si>
+    <t>la community offerte può essere un incentivo a scaricare e usare l'app</t>
   </si>
 </sst>
 </file>
@@ -147,7 +162,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -244,6 +259,13 @@
     <font>
       <sz val="10"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -826,7 +848,7 @@
   <dimension ref="A1:N31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,7 +861,7 @@
     <col min="7" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="34.140625" customWidth="1"/>
+    <col min="12" max="12" width="96.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1060,7 +1082,10 @@
         <v>90750</v>
       </c>
       <c r="L10" t="s">
-        <v>34</v>
+        <v>36</v>
+      </c>
+      <c r="M10" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1167,7 +1192,7 @@
         <v>2534.3999999999996</v>
       </c>
       <c r="L13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1274,7 +1299,7 @@
         <v>1916.1599999999999</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1647,6 +1672,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>